--- a/ALGOS/LogisticRegression.xlsx
+++ b/ALGOS/LogisticRegression.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\ALGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5068443-F07F-43AC-8E58-0F7291841BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BBFCDD-15F7-43D6-AA88-0ADD5AF932B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NumpyImplemetation" sheetId="1" r:id="rId1"/>
+    <sheet name="PyTorchImpl" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <r>
       <t>import</t>
@@ -4229,6 +4230,4195 @@
         <family val="3"/>
       </rPr>
       <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t># 1) Design model (input, output, forward pass with different layers)</t>
+  </si>
+  <si>
+    <t># 2) Construct loss and optimizer</t>
+  </si>
+  <si>
+    <t># 3) Training loop</t>
+  </si>
+  <si>
+    <t>#       - Forward = compute prediction and loss</t>
+  </si>
+  <si>
+    <t>#       - Backward = compute gradients</t>
+  </si>
+  <si>
+    <t>#       - Update weightsimport torch</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>preprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>StandardScaler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model_selection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_test_split</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pyplot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+  </si>
+  <si>
+    <t>#prepare data</t>
+  </si>
+  <si>
+    <r>
+      <t>bc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_breast_cancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.data,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.target</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.shape</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_test_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#scale</t>
+  </si>
+  <si>
+    <r>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>StandardScaler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit_transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#cast to float tensor</t>
+  </si>
+  <si>
+    <r>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>astype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.astype(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>astype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.astype(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>input_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_features</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>#model implementation</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LogisticRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LogisticRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_pred</t>
+    </r>
+  </si>
+  <si>
+    <t># we can call this model with samples X</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LogisticRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t># 2) Define loss and optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>learning_rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <t># callable function</t>
+  </si>
+  <si>
+    <r>
+      <t>criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BCELoss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>#optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SGD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>learning_rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Training </t>
+  </si>
+  <si>
+    <r>
+      <t>n_iterate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_iterate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># predict = forward pass with our model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#loss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#calculate gradient</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.backward()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#update the weight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># zero the gradients after updating</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>zero_grad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># [w, b] = model.parameters() # unpack parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'epoch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, loss = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.item()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.4f}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>     </t>
+  </si>
+  <si>
+    <r>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>no_grad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>():</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predicted_cls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.round()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>acc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predicted_cls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.eq(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">).sum() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'accuracy: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>acc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.item()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.4f}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Plot</t>
+  </si>
+  <si>
+    <r>
+      <t>predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).detach().numpy()</t>
+    </r>
+  </si>
+  <si>
+    <t># print(sc.inverse_transform(x_train.numpy())[:,1])</t>
+  </si>
+  <si>
+    <r>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inverse_transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())[:,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'go'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inverse_transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())[:,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'bo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
     </r>
   </si>
 </sst>
@@ -4236,7 +8426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4310,8 +8500,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF44747"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4326,7 +8522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4380,7 +8582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4407,6 +8609,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4596,6 +8825,55 @@
         <a:xfrm>
           <a:off x="7496175" y="5915025"/>
           <a:ext cx="2800000" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5762625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132702</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C07A32E-6D0D-3434-9F13-983E855B2ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="66675"/>
+          <a:ext cx="5180952" cy="3828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4872,8 +9150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,4 +9445,497 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7B4AEF-E941-4B76-84A6-893F07ADFA3F}">
+  <dimension ref="B1:B102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="116.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>